--- a/Documentacion/Testing/Copia de 1-MEC_TestingHito1.xlsx
+++ b/Documentacion/Testing/Copia de 1-MEC_TestingHito1.xlsx
@@ -2370,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2708,7 +2708,7 @@
         <v>45593</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
